--- a/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 127- C Pacific-SEKU9023736.xlsx
+++ b/data/input/Liquidaciones/HFF_SEA_8F- Liquidation- INST 127- C Pacific-SEKU9023736.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8A5F37-CAB2-7B4F-9805-62DD9FE631E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5B942-1CED-2242-AE82-0AC31EA78DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{EAF6C924-38F0-4036-86D6-E06FE8C6A837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{EAF6C924-38F0-4036-86D6-E06FE8C6A837}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -323,9 +323,6 @@
     <t>3JD</t>
   </si>
   <si>
-    <t>3JL</t>
-  </si>
-  <si>
     <t>1513509</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
   </si>
   <si>
     <t>1512498</t>
-  </si>
-  <si>
-    <t>2JL</t>
   </si>
   <si>
     <t>1511833</t>
@@ -367,6 +361,9 @@
   </si>
   <si>
     <t>观察</t>
+  </si>
+  <si>
+    <t>3J</t>
   </si>
 </sst>
 </file>
@@ -996,6 +993,12 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,12 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1441,7 +1438,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1462,45 +1459,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:21" ht="17">
       <c r="A4" s="2" t="s">
@@ -1515,10 +1512,10 @@
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="71"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="17">
@@ -1536,41 +1533,41 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="74">
         <v>45318</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="17">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:21" ht="17">
       <c r="A7" s="7"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:21" ht="18" thickBot="1">
       <c r="A8" s="12"/>
@@ -1589,8 +1586,8 @@
         <v>6</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickTop="1">
       <c r="A9" s="15" t="s">
@@ -1626,8 +1623,8 @@
       <c r="K9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="80" t="s">
-        <v>71</v>
+      <c r="L9" s="63" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17">
@@ -1709,8 +1706,8 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="32"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="1:21" ht="16">
       <c r="A12" s="21" t="s">
@@ -1756,8 +1753,8 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="32"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="1:21" ht="16">
       <c r="A13" s="21" t="s">
@@ -1803,8 +1800,8 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="32"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:21" ht="16">
       <c r="A14" s="21" t="s">
@@ -1850,8 +1847,8 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="32"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" spans="1:21" ht="16">
       <c r="A15" s="21" t="s">
@@ -1873,7 +1870,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H15" s="24">
         <v>419</v>
@@ -1897,8 +1894,8 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="32"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" spans="1:21" ht="16">
       <c r="A16" s="21" t="s">
@@ -1908,7 +1905,7 @@
         <v>45316</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <v>2.5</v>
@@ -1920,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="24">
         <v>420</v>
@@ -1944,8 +1941,8 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
       <c r="S16" s="32"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="1:21" ht="16">
       <c r="A17" s="21" t="s">
@@ -1955,7 +1952,7 @@
         <v>45316</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>2.5</v>
@@ -1991,8 +1988,8 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="32"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" spans="1:21" ht="16">
       <c r="A18" s="21" t="s">
@@ -2002,7 +1999,7 @@
         <v>45316</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
         <v>2.5</v>
@@ -2014,7 +2011,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="24">
         <v>420</v>
@@ -2038,8 +2035,8 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
       <c r="S18" s="32"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="1:21" ht="16">
       <c r="A19" s="21" t="s">
@@ -2049,7 +2046,7 @@
         <v>45316</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>2.5</v>
@@ -2061,7 +2058,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H19" s="24">
         <v>420</v>
@@ -2085,8 +2082,8 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="32"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="1:21" ht="16">
       <c r="A20" s="21" t="s">
@@ -2108,7 +2105,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H20" s="24">
         <v>420</v>
@@ -2132,8 +2129,8 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="1:21" ht="16">
       <c r="A21" s="21" t="s">
@@ -2179,8 +2176,8 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21" ht="16">
       <c r="A22" s="21" t="s">
@@ -2226,8 +2223,8 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
     </row>
     <row r="23" spans="1:21" ht="16">
       <c r="A23" s="21" t="s">
@@ -2273,8 +2270,8 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
     </row>
     <row r="24" spans="1:21" ht="16">
       <c r="A24" s="21" t="s">
@@ -2284,19 +2281,19 @@
         <v>45316</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>2.5</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H24" s="24">
         <v>420</v>
@@ -2320,8 +2317,8 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
     </row>
     <row r="25" spans="1:21" ht="16">
       <c r="A25" s="21" t="s">
@@ -2331,19 +2328,19 @@
         <v>45316</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1">
         <v>2.5</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="24">
         <v>420</v>
@@ -2367,8 +2364,8 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
     </row>
     <row r="26" spans="1:21" ht="16">
       <c r="A26" s="21" t="s">
@@ -2384,7 +2381,7 @@
         <v>2.5</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>49</v>
@@ -2414,8 +2411,8 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
     </row>
     <row r="27" spans="1:21" ht="16">
       <c r="A27" s="21" t="s">
@@ -2431,13 +2428,13 @@
         <v>2.5</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="24">
         <v>418</v>
@@ -2454,7 +2451,7 @@
         <v>13.396545017496397</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="29"/>
@@ -2463,8 +2460,8 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
     </row>
     <row r="28" spans="1:21" ht="16">
       <c r="A28" s="21" t="s">
@@ -2480,7 +2477,7 @@
         <v>2.5</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>49</v>
@@ -2503,7 +2500,7 @@
         <v>7.2321614558525598</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="29"/>
@@ -2512,8 +2509,8 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
     </row>
     <row r="29" spans="1:21" ht="16">
       <c r="A29" s="21" t="s">
@@ -2529,13 +2526,13 @@
         <v>2.5</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" s="24">
         <v>420</v>
@@ -2552,7 +2549,7 @@
         <v>9.2869559764005061</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M29" s="28"/>
       <c r="N29" s="29"/>
@@ -2561,8 +2558,8 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="21"/>
@@ -2661,8 +2658,8 @@
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
       <c r="S32" s="32"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="42"/>
@@ -2695,8 +2692,8 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="32"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="42"/>
@@ -2753,8 +2750,8 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="42"/>
@@ -2780,8 +2777,8 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="42"/>
@@ -2807,8 +2804,8 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="42"/>
@@ -2834,8 +2831,8 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="32"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="42"/>
@@ -2861,8 +2858,8 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="32"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="42"/>
@@ -2889,8 +2886,8 @@
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="32"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="42"/>
@@ -2919,8 +2916,8 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
       <c r="S41" s="32"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
     </row>
     <row r="42" spans="1:21">
       <c r="L42" s="27"/>
@@ -2931,16 +2928,29 @@
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:H7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="T24:U24"/>
@@ -2953,24 +2963,11 @@
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:H7"/>
-    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
